--- a/ws.xlsx
+++ b/ws.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,67 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>hey there</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>, how are you?</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2024-01-20 13:25:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>weekly diet plan</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Monday
+* Breakfast: Oatmeal with fruit and nuts
+* Lunch: Salad with grilled chicken or tofu
+* Dinner: Salmon with roasted vegetables
+Tuesday
+* Breakfast: Yogurt with berries and granola
+* Lunch: Leftover salmon salad
+* Dinner: Chicken stir-fry with brown rice
+Wednesday
+* Breakfast: Smoothie with fruit, yogurt, and protein powder
+* Lunch: Salad with grilled chicken or tofu
+* Dinner: Pasta with tomato sauce and vegetables
+Thursday
+* Breakfast: Waffles with fruit and syrup
+* Lunch: Leftover pasta with tomato sauce
+* Dinner: Vegetarian chili with cornbread
+Friday
+* Breakfast: Eggs with avocado and toast
+* Lunch: Leftover vegetarian chili
+* Dinner: Pizza with whole-wheat crust, vegetables, and lean protein
+Saturday
+* Breakfast: Pancakes with fruit and syrup
+* Lunch: Salad with grilled chicken or tofu
+* Dinner: Roasted chicken with vegetables
+Sunday
+* Breakfast: French toast with fruit and syrup
+* Lunch: Leftover roasted chicken
+* Dinner: Salmon with roasted vegetables</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2024-01-20 13:26:14</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
